--- a/excel_docs/DVOA Conversion.xlsx
+++ b/excel_docs/DVOA Conversion.xlsx
@@ -1,26 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/pick-em/excel_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF32333-A4CC-8D4A-A90C-796FC62E760D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CB3452-422D-F44A-9AB3-785A8E9EF507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35280" yWindow="500" windowWidth="19920" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="2" r:id="rId1"/>
     <sheet name="DVOA_Data" sheetId="4" r:id="rId2"/>
     <sheet name="site info" sheetId="1" r:id="rId3"/>
     <sheet name="team-translation" sheetId="3" r:id="rId4"/>
-    <sheet name="audit" sheetId="5" r:id="rId5"/>
+    <sheet name="website info-step1" sheetId="6" r:id="rId5"/>
+    <sheet name="audit" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">audit!$A$1:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">audit!$A$1:$C$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'website info-step1'!$A$1:$I$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="74">
   <si>
     <t>Team</t>
   </si>
@@ -241,12 +243,6 @@
     <t>":</t>
   </si>
   <si>
-    <t>JAC</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
     <t>team</t>
   </si>
   <si>
@@ -257,13 +253,22 @@
   </si>
   <si>
     <t>spread</t>
+  </si>
+  <si>
+    <t>JAX</t>
+  </si>
+  <si>
+    <t>LAR</t>
+  </si>
+  <si>
+    <t>need to input this into "site info" tab after</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -419,8 +424,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -609,6 +625,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -788,7 +810,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -812,6 +834,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1186,16 +1211,16 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="str">
         <f>VLOOKUP('site info'!A2,'team-translation'!A:B,2,0)</f>
-        <v>ravens</v>
+        <v>hawks</v>
       </c>
       <c r="B2" s="3">
         <f>'site info'!B2</f>
@@ -1212,13 +1237,13 @@
       </c>
       <c r="H2" s="2" t="str">
         <f t="shared" ref="H2:H33" si="0">D2&amp;A2&amp;E2&amp;B2&amp;F2</f>
-        <v>"ravens":1,</v>
+        <v>"hawks":1,</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="str">
         <f>VLOOKUP('site info'!A3,'team-translation'!A:B,2,0)</f>
-        <v>9ers</v>
+        <v>rams</v>
       </c>
       <c r="B3" s="3">
         <f>'site info'!B3</f>
@@ -1235,13 +1260,13 @@
       </c>
       <c r="H3" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"9ers":2,</v>
+        <v>"rams":2,</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="str">
         <f>VLOOKUP('site info'!A4,'team-translation'!A:B,2,0)</f>
-        <v>bills</v>
+        <v>lions</v>
       </c>
       <c r="B4" s="3">
         <f>'site info'!B4</f>
@@ -1258,13 +1283,13 @@
       </c>
       <c r="H4" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"bills":3,</v>
+        <v>"lions":3,</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="str">
         <f>VLOOKUP('site info'!A5,'team-translation'!A:B,2,0)</f>
-        <v>fins</v>
+        <v>colts</v>
       </c>
       <c r="B5" s="3">
         <f>'site info'!B5</f>
@@ -1281,13 +1306,13 @@
       </c>
       <c r="H5" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"fins":4,</v>
+        <v>"colts":4,</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="str">
         <f>VLOOKUP('site info'!A6,'team-translation'!A:B,2,0)</f>
-        <v>chiefs</v>
+        <v>pack</v>
       </c>
       <c r="B6" s="3">
         <f>'site info'!B6</f>
@@ -1304,13 +1329,13 @@
       </c>
       <c r="H6" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"chiefs":5,</v>
+        <v>"pack":5,</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="str">
         <f>VLOOKUP('site info'!A7,'team-translation'!A:B,2,0)</f>
-        <v>boys</v>
+        <v>chiefs</v>
       </c>
       <c r="B7" s="3">
         <f>'site info'!B7</f>
@@ -1327,13 +1352,13 @@
       </c>
       <c r="H7" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"boys":6,</v>
+        <v>"chiefs":6,</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="str">
         <f>VLOOKUP('site info'!A8,'team-translation'!A:B,2,0)</f>
-        <v>lions</v>
+        <v>texans</v>
       </c>
       <c r="B8" s="3">
         <f>'site info'!B8</f>
@@ -1350,13 +1375,13 @@
       </c>
       <c r="H8" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"lions":7,</v>
+        <v>"texans":7,</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="str">
         <f>VLOOKUP('site info'!A9,'team-translation'!A:B,2,0)</f>
-        <v>browns</v>
+        <v>broncos</v>
       </c>
       <c r="B9" s="3">
         <f>'site info'!B9</f>
@@ -1373,13 +1398,13 @@
       </c>
       <c r="H9" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"browns":8,</v>
+        <v>"broncos":8,</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="str">
         <f>VLOOKUP('site info'!A10,'team-translation'!A:B,2,0)</f>
-        <v>eagles</v>
+        <v>jags</v>
       </c>
       <c r="B10" s="3">
         <f>'site info'!B10</f>
@@ -1396,13 +1421,13 @@
       </c>
       <c r="H10" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"eagles":9,</v>
+        <v>"jags":9,</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="str">
         <f>VLOOKUP('site info'!A11,'team-translation'!A:B,2,0)</f>
-        <v>jags</v>
+        <v>bills</v>
       </c>
       <c r="B11" s="3">
         <f>'site info'!B11</f>
@@ -1419,13 +1444,13 @@
       </c>
       <c r="H11" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"jags":10,</v>
+        <v>"bills":10,</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="str">
         <f>VLOOKUP('site info'!A12,'team-translation'!A:B,2,0)</f>
-        <v>steelers</v>
+        <v>9ers</v>
       </c>
       <c r="B12" s="3">
         <f>'site info'!B12</f>
@@ -1442,13 +1467,13 @@
       </c>
       <c r="H12" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"steelers":11,</v>
+        <v>"9ers":11,</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="str">
         <f>VLOOKUP('site info'!A13,'team-translation'!A:B,2,0)</f>
-        <v>bucs</v>
+        <v>eagles</v>
       </c>
       <c r="B13" s="3">
         <f>'site info'!B13</f>
@@ -1465,13 +1490,13 @@
       </c>
       <c r="H13" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"bucs":12,</v>
+        <v>"eagles":12,</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="str">
         <f>VLOOKUP('site info'!A14,'team-translation'!A:B,2,0)</f>
-        <v>bengals</v>
+        <v>steelers</v>
       </c>
       <c r="B14" s="3">
         <f>'site info'!B14</f>
@@ -1488,13 +1513,13 @@
       </c>
       <c r="H14" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"bengals":13,</v>
+        <v>"steelers":13,</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="str">
         <f>VLOOKUP('site info'!A15,'team-translation'!A:B,2,0)</f>
-        <v>hawks</v>
+        <v>pats</v>
       </c>
       <c r="B15" s="3">
         <f>'site info'!B15</f>
@@ -1511,13 +1536,13 @@
       </c>
       <c r="H15" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"hawks":14,</v>
+        <v>"pats":14,</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="str">
         <f>VLOOKUP('site info'!A16,'team-translation'!A:B,2,0)</f>
-        <v>texans</v>
+        <v>chargers</v>
       </c>
       <c r="B16" s="3">
         <f>'site info'!B16</f>
@@ -1534,13 +1559,13 @@
       </c>
       <c r="H16" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"texans":15,</v>
+        <v>"chargers":15,</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="str">
         <f>VLOOKUP('site info'!A17,'team-translation'!A:B,2,0)</f>
-        <v>rams</v>
+        <v>ravens</v>
       </c>
       <c r="B17" s="3">
         <f>'site info'!B17</f>
@@ -1557,13 +1582,13 @@
       </c>
       <c r="H17" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"rams":16,</v>
+        <v>"ravens":16,</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="str">
         <f>VLOOKUP('site info'!A18,'team-translation'!A:B,2,0)</f>
-        <v>vikings</v>
+        <v>bucs</v>
       </c>
       <c r="B18" s="3">
         <f>'site info'!B18</f>
@@ -1580,13 +1605,13 @@
       </c>
       <c r="H18" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"vikings":17,</v>
+        <v>"bucs":17,</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="str">
         <f>VLOOKUP('site info'!A19,'team-translation'!A:B,2,0)</f>
-        <v>saints</v>
+        <v>fins</v>
       </c>
       <c r="B19" s="3">
         <f>'site info'!B19</f>
@@ -1603,13 +1628,13 @@
       </c>
       <c r="H19" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"saints":18,</v>
+        <v>"fins":18,</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="str">
         <f>VLOOKUP('site info'!A20,'team-translation'!A:B,2,0)</f>
-        <v>chargers</v>
+        <v>boys</v>
       </c>
       <c r="B20" s="3">
         <f>'site info'!B20</f>
@@ -1626,13 +1651,13 @@
       </c>
       <c r="H20" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"chargers":19,</v>
+        <v>"boys":19,</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="str">
         <f>VLOOKUP('site info'!A21,'team-translation'!A:B,2,0)</f>
-        <v>colts</v>
+        <v>bears</v>
       </c>
       <c r="B21" s="3">
         <f>'site info'!B21</f>
@@ -1649,13 +1674,13 @@
       </c>
       <c r="H21" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"colts":20,</v>
+        <v>"bears":20,</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="str">
         <f>VLOOKUP('site info'!A22,'team-translation'!A:B,2,0)</f>
-        <v>pack</v>
+        <v>falcons</v>
       </c>
       <c r="B22" s="3">
         <f>'site info'!B22</f>
@@ -1672,17 +1697,17 @@
       </c>
       <c r="H22" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"pack":21,</v>
+        <v>"falcons":21,</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="str">
         <f>VLOOKUP('site info'!A23,'team-translation'!A:B,2,0)</f>
-        <v>raiders</v>
+        <v>cards</v>
       </c>
       <c r="B23" s="3">
         <f>'site info'!B23</f>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D23" t="s">
         <v>65</v>
@@ -1695,13 +1720,13 @@
       </c>
       <c r="H23" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"raiders":22,</v>
+        <v>"cards":21,</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="str">
         <f>VLOOKUP('site info'!A24,'team-translation'!A:B,2,0)</f>
-        <v>bears</v>
+        <v>vikings</v>
       </c>
       <c r="B24" s="3">
         <f>'site info'!B24</f>
@@ -1718,13 +1743,13 @@
       </c>
       <c r="H24" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"bears":23,</v>
+        <v>"vikings":23,</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="str">
         <f>VLOOKUP('site info'!A25,'team-translation'!A:B,2,0)</f>
-        <v>broncos</v>
+        <v>wash</v>
       </c>
       <c r="B25" s="3">
         <f>'site info'!B25</f>
@@ -1741,13 +1766,13 @@
       </c>
       <c r="H25" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"broncos":24,</v>
+        <v>"wash":24,</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="str">
         <f>VLOOKUP('site info'!A26,'team-translation'!A:B,2,0)</f>
-        <v>falcons</v>
+        <v>panthers</v>
       </c>
       <c r="B26" s="3">
         <f>'site info'!B26</f>
@@ -1764,13 +1789,13 @@
       </c>
       <c r="H26" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"falcons":25,</v>
+        <v>"panthers":25,</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="str">
         <f>VLOOKUP('site info'!A27,'team-translation'!A:B,2,0)</f>
-        <v>titans</v>
+        <v>giants</v>
       </c>
       <c r="B27" s="3">
         <f>'site info'!B27</f>
@@ -1787,13 +1812,13 @@
       </c>
       <c r="H27" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"titans":26,</v>
+        <v>"giants":26,</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="str">
         <f>VLOOKUP('site info'!A28,'team-translation'!A:B,2,0)</f>
-        <v>jets</v>
+        <v>bengals</v>
       </c>
       <c r="B28" s="3">
         <f>'site info'!B28</f>
@@ -1810,13 +1835,13 @@
       </c>
       <c r="H28" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"jets":27,</v>
+        <v>"bengals":27,</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="str">
         <f>VLOOKUP('site info'!A29,'team-translation'!A:B,2,0)</f>
-        <v>pats</v>
+        <v>jets</v>
       </c>
       <c r="B29" s="3">
         <f>'site info'!B29</f>
@@ -1833,13 +1858,13 @@
       </c>
       <c r="H29" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"pats":28,</v>
+        <v>"jets":28,</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="str">
         <f>VLOOKUP('site info'!A30,'team-translation'!A:B,2,0)</f>
-        <v>cards</v>
+        <v>saints</v>
       </c>
       <c r="B30" s="3">
         <f>'site info'!B30</f>
@@ -1856,13 +1881,13 @@
       </c>
       <c r="H30" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"cards":29,</v>
+        <v>"saints":29,</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="str">
         <f>VLOOKUP('site info'!A31,'team-translation'!A:B,2,0)</f>
-        <v>wash</v>
+        <v>browns</v>
       </c>
       <c r="B31" s="3">
         <f>'site info'!B31</f>
@@ -1879,13 +1904,13 @@
       </c>
       <c r="H31" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"wash":30,</v>
+        <v>"browns":30,</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="str">
         <f>VLOOKUP('site info'!A32,'team-translation'!A:B,2,0)</f>
-        <v>panthers</v>
+        <v>raiders</v>
       </c>
       <c r="B32" s="3">
         <f>'site info'!B32</f>
@@ -1902,13 +1927,13 @@
       </c>
       <c r="H32" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"panthers":31,</v>
+        <v>"raiders":31,</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="str">
         <f>VLOOKUP('site info'!A33,'team-translation'!A:B,2,0)</f>
-        <v>giants</v>
+        <v>titans</v>
       </c>
       <c r="B33" s="3">
         <f>'site info'!B33</f>
@@ -1925,7 +1950,7 @@
       </c>
       <c r="H33" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>"giants":32,</v>
+        <v>"titans":32,</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{960B1EF2-CB36-7445-A86C-DD3EA65C71DE}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1946,16 +1971,16 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="str">
         <f>VLOOKUP('site info'!A2,'team-translation'!A:B,2,0)</f>
-        <v>ravens</v>
+        <v>hawks</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -1964,7 +1989,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="str">
         <f>VLOOKUP('site info'!A3,'team-translation'!A:B,2,0)</f>
-        <v>9ers</v>
+        <v>rams</v>
       </c>
       <c r="B3" s="6">
         <v>2</v>
@@ -1973,7 +1998,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="str">
         <f>VLOOKUP('site info'!A4,'team-translation'!A:B,2,0)</f>
-        <v>bills</v>
+        <v>lions</v>
       </c>
       <c r="B4" s="6">
         <v>3</v>
@@ -1982,7 +2007,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="str">
         <f>VLOOKUP('site info'!A5,'team-translation'!A:B,2,0)</f>
-        <v>fins</v>
+        <v>colts</v>
       </c>
       <c r="B5" s="6">
         <v>4</v>
@@ -1991,7 +2016,7 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="str">
         <f>VLOOKUP('site info'!A6,'team-translation'!A:B,2,0)</f>
-        <v>chiefs</v>
+        <v>pack</v>
       </c>
       <c r="B6" s="6">
         <v>5</v>
@@ -2000,7 +2025,7 @@
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="str">
         <f>VLOOKUP('site info'!A7,'team-translation'!A:B,2,0)</f>
-        <v>boys</v>
+        <v>chiefs</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -2009,7 +2034,7 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="str">
         <f>VLOOKUP('site info'!A8,'team-translation'!A:B,2,0)</f>
-        <v>lions</v>
+        <v>texans</v>
       </c>
       <c r="B8" s="6">
         <v>7</v>
@@ -2018,7 +2043,7 @@
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="str">
         <f>VLOOKUP('site info'!A9,'team-translation'!A:B,2,0)</f>
-        <v>browns</v>
+        <v>broncos</v>
       </c>
       <c r="B9" s="6">
         <v>8</v>
@@ -2027,7 +2052,7 @@
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="str">
         <f>VLOOKUP('site info'!A10,'team-translation'!A:B,2,0)</f>
-        <v>eagles</v>
+        <v>jags</v>
       </c>
       <c r="B10" s="6">
         <v>9</v>
@@ -2036,7 +2061,7 @@
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="str">
         <f>VLOOKUP('site info'!A11,'team-translation'!A:B,2,0)</f>
-        <v>jags</v>
+        <v>bills</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
@@ -2045,7 +2070,7 @@
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="str">
         <f>VLOOKUP('site info'!A12,'team-translation'!A:B,2,0)</f>
-        <v>steelers</v>
+        <v>9ers</v>
       </c>
       <c r="B12" s="6">
         <v>11</v>
@@ -2054,7 +2079,7 @@
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="str">
         <f>VLOOKUP('site info'!A13,'team-translation'!A:B,2,0)</f>
-        <v>bucs</v>
+        <v>eagles</v>
       </c>
       <c r="B13" s="6">
         <v>12</v>
@@ -2063,7 +2088,7 @@
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="str">
         <f>VLOOKUP('site info'!A14,'team-translation'!A:B,2,0)</f>
-        <v>bengals</v>
+        <v>steelers</v>
       </c>
       <c r="B14" s="6">
         <v>13</v>
@@ -2072,7 +2097,7 @@
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="str">
         <f>VLOOKUP('site info'!A15,'team-translation'!A:B,2,0)</f>
-        <v>hawks</v>
+        <v>pats</v>
       </c>
       <c r="B15" s="6">
         <v>14</v>
@@ -2081,7 +2106,7 @@
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="str">
         <f>VLOOKUP('site info'!A16,'team-translation'!A:B,2,0)</f>
-        <v>texans</v>
+        <v>chargers</v>
       </c>
       <c r="B16" s="6">
         <v>15</v>
@@ -2090,7 +2115,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="str">
         <f>VLOOKUP('site info'!A17,'team-translation'!A:B,2,0)</f>
-        <v>rams</v>
+        <v>ravens</v>
       </c>
       <c r="B17" s="6">
         <v>16</v>
@@ -2099,7 +2124,7 @@
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="str">
         <f>VLOOKUP('site info'!A18,'team-translation'!A:B,2,0)</f>
-        <v>vikings</v>
+        <v>bucs</v>
       </c>
       <c r="B18" s="6">
         <v>17</v>
@@ -2108,7 +2133,7 @@
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="str">
         <f>VLOOKUP('site info'!A19,'team-translation'!A:B,2,0)</f>
-        <v>saints</v>
+        <v>fins</v>
       </c>
       <c r="B19" s="6">
         <v>18</v>
@@ -2117,7 +2142,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="str">
         <f>VLOOKUP('site info'!A20,'team-translation'!A:B,2,0)</f>
-        <v>chargers</v>
+        <v>boys</v>
       </c>
       <c r="B20" s="6">
         <v>19</v>
@@ -2126,7 +2151,7 @@
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="str">
         <f>VLOOKUP('site info'!A21,'team-translation'!A:B,2,0)</f>
-        <v>colts</v>
+        <v>bears</v>
       </c>
       <c r="B21" s="6">
         <v>20</v>
@@ -2135,7 +2160,7 @@
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="str">
         <f>VLOOKUP('site info'!A22,'team-translation'!A:B,2,0)</f>
-        <v>pack</v>
+        <v>falcons</v>
       </c>
       <c r="B22" s="6">
         <v>21</v>
@@ -2144,7 +2169,7 @@
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="str">
         <f>VLOOKUP('site info'!A23,'team-translation'!A:B,2,0)</f>
-        <v>raiders</v>
+        <v>cards</v>
       </c>
       <c r="B23" s="6">
         <v>22</v>
@@ -2153,7 +2178,7 @@
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="str">
         <f>VLOOKUP('site info'!A24,'team-translation'!A:B,2,0)</f>
-        <v>bears</v>
+        <v>vikings</v>
       </c>
       <c r="B24" s="6">
         <v>23</v>
@@ -2162,7 +2187,7 @@
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="str">
         <f>VLOOKUP('site info'!A25,'team-translation'!A:B,2,0)</f>
-        <v>broncos</v>
+        <v>wash</v>
       </c>
       <c r="B25" s="6">
         <v>24</v>
@@ -2171,7 +2196,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="str">
         <f>VLOOKUP('site info'!A26,'team-translation'!A:B,2,0)</f>
-        <v>falcons</v>
+        <v>panthers</v>
       </c>
       <c r="B26" s="6">
         <v>25</v>
@@ -2180,7 +2205,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="str">
         <f>VLOOKUP('site info'!A27,'team-translation'!A:B,2,0)</f>
-        <v>titans</v>
+        <v>giants</v>
       </c>
       <c r="B27" s="6">
         <v>26</v>
@@ -2189,7 +2214,7 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="str">
         <f>VLOOKUP('site info'!A28,'team-translation'!A:B,2,0)</f>
-        <v>jets</v>
+        <v>bengals</v>
       </c>
       <c r="B28" s="6">
         <v>27</v>
@@ -2198,7 +2223,7 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="str">
         <f>VLOOKUP('site info'!A29,'team-translation'!A:B,2,0)</f>
-        <v>pats</v>
+        <v>jets</v>
       </c>
       <c r="B29" s="6">
         <v>28</v>
@@ -2207,7 +2232,7 @@
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="str">
         <f>VLOOKUP('site info'!A30,'team-translation'!A:B,2,0)</f>
-        <v>cards</v>
+        <v>saints</v>
       </c>
       <c r="B30" s="6">
         <v>29</v>
@@ -2216,7 +2241,7 @@
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="str">
         <f>VLOOKUP('site info'!A31,'team-translation'!A:B,2,0)</f>
-        <v>wash</v>
+        <v>browns</v>
       </c>
       <c r="B31" s="6">
         <v>30</v>
@@ -2225,7 +2250,7 @@
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="str">
         <f>VLOOKUP('site info'!A32,'team-translation'!A:B,2,0)</f>
-        <v>panthers</v>
+        <v>raiders</v>
       </c>
       <c r="B32" s="6">
         <v>31</v>
@@ -2234,7 +2259,7 @@
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="str">
         <f>VLOOKUP('site info'!A33,'team-translation'!A:B,2,0)</f>
-        <v>giants</v>
+        <v>titans</v>
       </c>
       <c r="B33" s="6">
         <v>32</v>
@@ -2249,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2266,257 +2291,257 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>9</v>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>30</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>8</v>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>8</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>12</v>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>23</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>67</v>
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>3</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>19</v>
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>4</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>7</v>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>11</v>
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>31</v>
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>26</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>68</v>
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>21</v>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>22</v>
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>9</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>26</v>
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>5</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>30</v>
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>16</v>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>25</v>
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>23</v>
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>17</v>
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>27</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>20</v>
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>10</v>
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>13</v>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>10</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>29</v>
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>18</v>
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>15</v>
       </c>
       <c r="B31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>27</v>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>25</v>
       </c>
       <c r="B32">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>24</v>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -2532,7 +2557,7 @@
   <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2675,7 +2700,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
         <v>49</v>
@@ -2747,7 +2772,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
@@ -2799,6 +2824,189 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3C6C06-A8F8-B943-BD3C-42DD7C342140}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A1:A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="8" width="10.83203125" style="9"/>
+    <col min="9" max="9" width="61.33203125" style="9" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A417920F-EAA9-844B-BE9E-F0F40B062263}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -2816,13 +3024,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">

--- a/excel_docs/DVOA Conversion.xlsx
+++ b/excel_docs/DVOA Conversion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph.collins/Documents/personal-projects/pick-em/excel_docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CB3452-422D-F44A-9AB3-785A8E9EF507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9C9CB3-4704-B54A-9DAC-D2CFD7C5B81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36500" yWindow="1140" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="2" r:id="rId1"/>
@@ -2275,7 +2275,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
